--- a/biology/Médecine/Rameau_palmaire_superficiel_de_l'artère_radiale/Rameau_palmaire_superficiel_de_l'artère_radiale.xlsx
+++ b/biology/Médecine/Rameau_palmaire_superficiel_de_l'artère_radiale/Rameau_palmaire_superficiel_de_l'artère_radiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_palmaire_superficiel_de_l%27art%C3%A8re_radiale</t>
+          <t>Rameau_palmaire_superficiel_de_l'artère_radiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau palmaire superficiel de l’artère radiale est une branche artérielle de la main.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_palmaire_superficiel_de_l%27art%C3%A8re_radiale</t>
+          <t>Rameau_palmaire_superficiel_de_l'artère_radiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau palmaire superficiel de l’artère radiale naît de l'artère radiale, à l'endroit où elle contourne le côté latéral du poignet.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_palmaire_superficiel_de_l%27art%C3%A8re_radiale</t>
+          <t>Rameau_palmaire_superficiel_de_l'artère_radiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,49 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il chemine vers l'avant, il traverse, ou passe parfois au-dessus, les muscles thénars qu'il vascularise.
 Il s'anastomose avec la partie terminale de l'artère ulnaire, complétant l'arcade palmaire superficielle.
-Variation
-Ce vaisseau varie considérablement en taille. Généralement il est très petit et se termine dans les muscles du pouce ou il est aussi gros que le prolongement de l'artère radiale elle-même.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rameau_palmaire_superficiel_de_l'artère_radiale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rameau_palmaire_superficiel_de_l%27art%C3%A8re_radiale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vaisseau varie considérablement en taille. Généralement il est très petit et se termine dans les muscles du pouce ou il est aussi gros que le prolongement de l'artère radiale elle-même.
 </t>
         </is>
       </c>
